--- a/outputs/reimport_invoice_factory_Silvass.xlsx
+++ b/outputs/reimport_invoice_factory_Silvass.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>500</v>
@@ -662,7 +662,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n"/>
+      <c r="H2" s="4" t="n">
+        <v>348.1894150417825</v>
+      </c>
       <c r="I2" s="5" t="n">
         <v>2.6</v>
       </c>
@@ -736,7 +738,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>3</v>
@@ -746,7 +748,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
+      <c r="H3" s="4" t="n">
+        <v>45.96100278551529</v>
+      </c>
       <c r="I3" s="5" t="n">
         <v>1.1</v>
       </c>
@@ -820,7 +824,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>78</v>
+        <v>10.86350974930361</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2</v>
@@ -830,7 +834,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="4" t="n">
+        <v>21.72701949860723</v>
+      </c>
       <c r="I4" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -904,7 +910,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>78</v>
+        <v>10.86350974930361</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -914,7 +920,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="4" t="n">
+        <v>10.86350974930361</v>
+      </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -988,7 +996,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3</v>
@@ -998,7 +1006,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="4" t="n">
+        <v>45.96100278551529</v>
+      </c>
       <c r="I6" s="5" t="n">
         <v>1.55</v>
       </c>
@@ -1072,7 +1082,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.6</v>
+        <v>3.147632311977714</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>100</v>
@@ -1082,7 +1092,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n"/>
+      <c r="H7" s="4" t="n">
+        <v>314.7632311977713</v>
+      </c>
       <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
@@ -1162,7 +1174,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.8</v>
+        <v>0.1114206128133704</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>137</v>
@@ -1172,7 +1184,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n"/>
+      <c r="H8" s="4" t="n">
+        <v>15.26462395543174</v>
+      </c>
       <c r="I8" s="5" t="n">
         <v>2.1</v>
       </c>
@@ -1247,7 +1261,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1140</v>
+        <v>158.7743732590528</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -1257,7 +1271,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n"/>
+      <c r="H9" s="4" t="n">
+        <v>158.7743732590528</v>
+      </c>
       <c r="I9" s="5" t="n">
         <v>3</v>
       </c>
@@ -1331,7 +1347,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -1341,7 +1357,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n"/>
+      <c r="H10" s="4" t="n">
+        <v>32.03342618384399</v>
+      </c>
       <c r="I10" s="5" t="n">
         <v>5</v>
       </c>
@@ -1415,7 +1433,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>185</v>
+        <v>25.7660167130919</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
@@ -1425,7 +1443,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n"/>
+      <c r="H11" s="4" t="n">
+        <v>77.29805013927572</v>
+      </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
       </c>
@@ -1499,7 +1519,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>30</v>
@@ -1509,7 +1529,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n"/>
+      <c r="H12" s="4" t="n">
+        <v>20.89136490250695</v>
+      </c>
       <c r="I12" s="5" t="n">
         <v>0.15</v>
       </c>
@@ -1583,7 +1605,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>14.8</v>
+        <v>2.061281337047352</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>2040</v>
@@ -1593,7 +1615,9 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n"/>
+      <c r="H13" s="4" t="n">
+        <v>4205.013927576599</v>
+      </c>
       <c r="I13" s="5" t="n">
         <v>1200</v>
       </c>
@@ -1667,7 +1691,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>7.3</v>
+        <v>1.016713091922005</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>2800</v>
@@ -1677,7 +1701,9 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n"/>
+      <c r="H14" s="4" t="n">
+        <v>2846.796657381614</v>
+      </c>
       <c r="I14" s="5" t="n">
         <v>866</v>
       </c>
@@ -1752,7 +1778,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>580</v>
+        <v>80.77994428969353</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>2</v>
@@ -1762,7 +1788,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n"/>
+      <c r="H15" s="4" t="n">
+        <v>161.5598885793871</v>
+      </c>
       <c r="I15" s="5" t="n">
         <v>0.3</v>
       </c>
@@ -1836,7 +1864,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>80</v>
+        <v>11.14206128133704</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5</v>
@@ -1846,7 +1874,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n"/>
+      <c r="H16" s="4" t="n">
+        <v>55.71030640668519</v>
+      </c>
       <c r="I16" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -1920,7 +1950,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>2</v>
@@ -1930,7 +1960,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n"/>
+      <c r="H17" s="4" t="n">
+        <v>125.3481894150417</v>
+      </c>
       <c r="I17" s="5" t="n">
         <v>0.05</v>
       </c>
@@ -2008,7 +2040,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>1160</v>
+        <v>161.5598885793871</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>3</v>
@@ -2018,7 +2050,9 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n"/>
+      <c r="H18" s="4" t="n">
+        <v>484.6796657381612</v>
+      </c>
       <c r="I18" s="5" t="n">
         <v>34</v>
       </c>
@@ -2096,7 +2130,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>1300</v>
+        <v>181.0584958217269</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>12</v>
@@ -2106,7 +2140,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n"/>
+      <c r="H19" s="4" t="n">
+        <v>2172.701949860723</v>
+      </c>
       <c r="I19" s="5" t="n">
         <v>34</v>
       </c>
@@ -2183,7 +2219,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>300</v>
+        <v>41.78272980501389</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>9</v>
@@ -2193,7 +2229,9 @@
           <t>套</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n"/>
+      <c r="H20" s="4" t="n">
+        <v>376.044568245125</v>
+      </c>
       <c r="I20" s="5" t="n">
         <v>205</v>
       </c>
@@ -2267,7 +2305,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>935</v>
+        <v>130.2228412256266</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
@@ -2277,7 +2315,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n"/>
+      <c r="H21" s="4" t="n">
+        <v>130.2228412256266</v>
+      </c>
       <c r="I21" s="5" t="n">
         <v>15</v>
       </c>
@@ -2351,7 +2391,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>22</v>
+        <v>3.064066852367686</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>10</v>
@@ -2361,7 +2401,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n"/>
+      <c r="H22" s="4" t="n">
+        <v>30.64066852367686</v>
+      </c>
       <c r="I22" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -2437,7 +2479,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>350</v>
+        <v>48.74651810584955</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>5</v>
@@ -2447,7 +2489,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n"/>
+      <c r="H23" s="4" t="n">
+        <v>243.7325905292477</v>
+      </c>
       <c r="I23" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -2521,7 +2565,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>8</v>
+        <v>1.114206128133704</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>500</v>
@@ -2531,7 +2575,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n"/>
+      <c r="H24" s="4" t="n">
+        <v>557.103064066852</v>
+      </c>
       <c r="I24" s="5" t="n">
         <v>4.5</v>
       </c>
@@ -2601,7 +2647,7 @@
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n">
-        <v>110</v>
+        <v>15.32033426183843</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>4</v>
@@ -2611,7 +2657,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n"/>
+      <c r="H25" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I25" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -2681,7 +2729,7 @@
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n">
-        <v>186.45</v>
+        <v>25.96796657381613</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>5</v>
@@ -2691,7 +2739,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n"/>
+      <c r="H26" s="4" t="n">
+        <v>129.8398328690807</v>
+      </c>
       <c r="I26" s="5" t="n">
         <v>0.04</v>
       </c>
@@ -2765,7 +2815,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>4950</v>
+        <v>689.4150417827293</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>2</v>
@@ -2775,7 +2825,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n"/>
+      <c r="H27" s="4" t="n">
+        <v>1378.830083565459</v>
+      </c>
       <c r="I27" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -2849,7 +2901,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>6.5</v>
+        <v>0.9052924791086344</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10</v>
@@ -2859,7 +2911,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n"/>
+      <c r="H28" s="4" t="n">
+        <v>9.052924791086344</v>
+      </c>
       <c r="I28" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -2933,7 +2987,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>6.5</v>
+        <v>0.9052924791086344</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>10</v>
@@ -2943,7 +2997,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n"/>
+      <c r="H29" s="4" t="n">
+        <v>9.052924791086344</v>
+      </c>
       <c r="I29" s="5" t="n">
         <v>0.09</v>
       </c>
@@ -3017,7 +3073,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2</v>
@@ -3027,7 +3083,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n"/>
+      <c r="H30" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I30" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -3101,7 +3159,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>2</v>
@@ -3111,7 +3169,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n"/>
+      <c r="H31" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I31" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -3185,7 +3245,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>2</v>
@@ -3195,7 +3255,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n"/>
+      <c r="H32" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I32" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -3269,7 +3331,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>220</v>
+        <v>30.64066852367686</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>2</v>
@@ -3279,7 +3341,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n"/>
+      <c r="H33" s="4" t="n">
+        <v>61.28133704735372</v>
+      </c>
       <c r="I33" s="5" t="n">
         <v>0.02</v>
       </c>
@@ -3353,7 +3417,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>328</v>
+        <v>45.68245125348186</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2</v>
@@ -3363,7 +3427,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n"/>
+      <c r="H34" s="4" t="n">
+        <v>91.36490250696372</v>
+      </c>
       <c r="I34" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -3437,7 +3503,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>328</v>
+        <v>45.68245125348186</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>2</v>
@@ -3447,7 +3513,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n"/>
+      <c r="H35" s="4" t="n">
+        <v>91.36490250696372</v>
+      </c>
       <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
@@ -3521,7 +3589,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>158.2</v>
+        <v>22.03342618384399</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>4</v>
@@ -3531,7 +3599,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n"/>
+      <c r="H36" s="4" t="n">
+        <v>88.13370473537597</v>
+      </c>
       <c r="I36" s="5" t="n">
         <v>3.5</v>
       </c>
@@ -3605,7 +3675,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>1300</v>
+        <v>181.0584958217269</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>2</v>
@@ -3615,7 +3685,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n"/>
+      <c r="H37" s="4" t="n">
+        <v>362.1169916434538</v>
+      </c>
       <c r="I37" s="5" t="n">
         <v>2.5</v>
       </c>
@@ -3689,7 +3761,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1380</v>
+        <v>192.2005571030639</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>1</v>
@@ -3699,7 +3771,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n"/>
+      <c r="H38" s="4" t="n">
+        <v>192.2005571030639</v>
+      </c>
       <c r="I38" s="5" t="n">
         <v>1.2</v>
       </c>
@@ -3773,7 +3847,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3.5</v>
+        <v>0.4874651810584955</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>25</v>
@@ -3783,7 +3857,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n"/>
+      <c r="H39" s="4" t="n">
+        <v>12.18662952646239</v>
+      </c>
       <c r="I39" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -3857,7 +3933,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>14.6</v>
+        <v>2.03342618384401</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5</v>
@@ -3867,7 +3943,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n"/>
+      <c r="H40" s="4" t="n">
+        <v>10.16713091922005</v>
+      </c>
       <c r="I40" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -3941,7 +4019,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>2</v>
@@ -3951,7 +4029,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n"/>
+      <c r="H41" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I41" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4025,7 +4105,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>2</v>
@@ -4035,7 +4115,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n"/>
+      <c r="H42" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I42" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4109,7 +4191,7 @@
         </is>
       </c>
       <c r="E43" s="4" t="n">
-        <v>10</v>
+        <v>1.39275766016713</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>2</v>
@@ -4119,7 +4201,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n"/>
+      <c r="H43" s="4" t="n">
+        <v>2.78551532033426</v>
+      </c>
       <c r="I43" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4195,7 +4279,7 @@
         </is>
       </c>
       <c r="E44" s="4" t="n">
-        <v>55</v>
+        <v>7.660167130919215</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>15</v>
@@ -4205,7 +4289,9 @@
           <t>盒</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n"/>
+      <c r="H44" s="4" t="n">
+        <v>114.9025069637882</v>
+      </c>
       <c r="I44" s="5" t="n">
         <v>0.1</v>
       </c>
@@ -4280,7 +4366,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>55</v>
+        <v>7.660167130919215</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>5</v>
@@ -4290,7 +4376,9 @@
           <t>盒</t>
         </is>
       </c>
-      <c r="H45" s="4" t="n"/>
+      <c r="H45" s="4" t="n">
+        <v>38.30083565459607</v>
+      </c>
       <c r="I45" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4364,7 +4452,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>20</v>
+        <v>2.78551532033426</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5</v>
@@ -4374,7 +4462,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n"/>
+      <c r="H46" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I46" s="5" t="n">
         <v>0.14</v>
       </c>
@@ -4449,7 +4539,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.0278551532033426</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>33</v>
@@ -4459,7 +4549,9 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H47" s="4" t="n"/>
+      <c r="H47" s="4" t="n">
+        <v>0.9192200557103059</v>
+      </c>
       <c r="I47" s="5" t="n">
         <v>0.16</v>
       </c>
@@ -4533,7 +4625,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>157</v>
+        <v>21.86629526462394</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>2</v>
@@ -4543,7 +4635,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H48" s="4" t="n"/>
+      <c r="H48" s="4" t="n">
+        <v>43.73259052924788</v>
+      </c>
       <c r="I48" s="5" t="n">
         <v>2.3</v>
       </c>
@@ -4617,7 +4711,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>5</v>
+        <v>0.6963788300835649</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>20</v>
@@ -4627,7 +4721,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H49" s="4" t="n"/>
+      <c r="H49" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I49" s="5" t="n">
         <v>2.06</v>
       </c>
@@ -4701,7 +4797,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>31.18</v>
+        <v>4.342618384401111</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>2</v>
@@ -4711,7 +4807,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H50" s="4" t="n"/>
+      <c r="H50" s="4" t="n">
+        <v>8.685236768802222</v>
+      </c>
       <c r="I50" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4785,7 +4883,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>255.27</v>
+        <v>35.55292479108633</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>1</v>
@@ -4795,7 +4893,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H51" s="4" t="n"/>
+      <c r="H51" s="4" t="n">
+        <v>35.55292479108633</v>
+      </c>
       <c r="I51" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -4869,7 +4969,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>15</v>
+        <v>2.089136490250695</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>10</v>
@@ -4879,7 +4979,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H52" s="4" t="n"/>
+      <c r="H52" s="4" t="n">
+        <v>20.89136490250695</v>
+      </c>
       <c r="I52" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -4953,7 +5055,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.08</v>
+        <v>0.15041782729805</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>50</v>
@@ -4963,7 +5065,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n"/>
+      <c r="H53" s="4" t="n">
+        <v>7.520891364902502</v>
+      </c>
       <c r="I53" s="5" t="n">
         <v>0.55</v>
       </c>
@@ -5041,7 +5145,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>11</v>
+        <v>1.532033426183843</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>5</v>
@@ -5051,7 +5155,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H54" s="4" t="n"/>
+      <c r="H54" s="4" t="n">
+        <v>7.660167130919215</v>
+      </c>
       <c r="I54" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -5125,7 +5231,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.04</v>
+        <v>0.005571030640668519</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>410</v>
@@ -5135,7 +5241,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H55" s="4" t="n"/>
+      <c r="H55" s="4" t="n">
+        <v>2.284122562674093</v>
+      </c>
       <c r="I55" s="5" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +5317,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1550</v>
+        <v>215.8774373259051</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>9</v>
@@ -5219,7 +5327,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H56" s="4" t="n"/>
+      <c r="H56" s="4" t="n">
+        <v>1942.896935933146</v>
+      </c>
       <c r="I56" s="5" t="n">
         <v>11</v>
       </c>
@@ -5293,7 +5403,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>200</v>
+        <v>27.8551532033426</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>12</v>
@@ -5303,7 +5413,9 @@
           <t>瓶</t>
         </is>
       </c>
-      <c r="H57" s="4" t="n"/>
+      <c r="H57" s="4" t="n">
+        <v>334.2618384401111</v>
+      </c>
       <c r="I57" s="5" t="n">
         <v>2.98</v>
       </c>
@@ -5377,7 +5489,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>260</v>
+        <v>36.21169916434538</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>2</v>
@@ -5387,7 +5499,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H58" s="4" t="n"/>
+      <c r="H58" s="4" t="n">
+        <v>72.42339832869075</v>
+      </c>
       <c r="I58" s="5" t="n">
         <v>5</v>
       </c>
@@ -5461,7 +5575,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>26</v>
+        <v>3.621169916434538</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>10</v>
@@ -5471,7 +5585,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H59" s="4" t="n"/>
+      <c r="H59" s="4" t="n">
+        <v>36.21169916434538</v>
+      </c>
       <c r="I59" s="5" t="n">
         <v>5.78</v>
       </c>
@@ -5545,7 +5661,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>96</v>
@@ -5555,7 +5671,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H60" s="4" t="n"/>
+      <c r="H60" s="4" t="n">
+        <v>3075.208913649023</v>
+      </c>
       <c r="I60" s="5" t="n">
         <v>96</v>
       </c>
@@ -5629,7 +5747,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>4</v>
@@ -5639,7 +5757,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H61" s="4" t="n"/>
+      <c r="H61" s="4" t="n">
+        <v>128.1337047353759</v>
+      </c>
       <c r="I61" s="5" t="n">
         <v>4</v>
       </c>
@@ -5719,7 +5839,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>298</v>
+        <v>41.50417827298047</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>4</v>
@@ -5729,7 +5849,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H62" s="4" t="n"/>
+      <c r="H62" s="4" t="n">
+        <v>166.0167130919219</v>
+      </c>
       <c r="I62" s="5" t="n">
         <v>18</v>
       </c>
@@ -5809,7 +5931,7 @@
         </is>
       </c>
       <c r="E63" s="4" t="n">
-        <v>298</v>
+        <v>41.50417827298047</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>3</v>
@@ -5819,7 +5941,9 @@
           <t>台</t>
         </is>
       </c>
-      <c r="H63" s="4" t="n"/>
+      <c r="H63" s="4" t="n">
+        <v>124.5125348189414</v>
+      </c>
       <c r="I63" s="5" t="n">
         <v>13</v>
       </c>
@@ -5893,7 +6017,7 @@
         </is>
       </c>
       <c r="E64" s="4" t="n">
-        <v>133</v>
+        <v>18.52367688022283</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>6</v>
@@ -5903,7 +6027,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H64" s="4" t="n"/>
+      <c r="H64" s="4" t="n">
+        <v>111.142061281337</v>
+      </c>
       <c r="I64" s="5" t="n">
         <v>2</v>
       </c>
@@ -5977,7 +6103,7 @@
         </is>
       </c>
       <c r="E65" s="4" t="n">
-        <v>450</v>
+        <v>62.67409470752084</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>1</v>
@@ -5987,7 +6113,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H65" s="4" t="n"/>
+      <c r="H65" s="4" t="n">
+        <v>62.67409470752084</v>
+      </c>
       <c r="I65" s="5" t="n">
         <v>5</v>
       </c>
@@ -6061,7 +6189,7 @@
         </is>
       </c>
       <c r="E66" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>2</v>
@@ -6071,7 +6199,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H66" s="4" t="n"/>
+      <c r="H66" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I66" s="5" t="n">
         <v>1</v>
       </c>
@@ -6145,7 +6275,7 @@
         </is>
       </c>
       <c r="E67" s="4" t="n">
-        <v>720</v>
+        <v>100.2785515320333</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>2</v>
@@ -6155,7 +6285,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H67" s="4" t="n"/>
+      <c r="H67" s="4" t="n">
+        <v>200.5571030640667</v>
+      </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
       </c>
@@ -6229,7 +6361,7 @@
         </is>
       </c>
       <c r="E68" s="4" t="n">
-        <v>62</v>
+        <v>8.635097493036206</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>2</v>
@@ -6239,7 +6371,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H68" s="4" t="n"/>
+      <c r="H68" s="4" t="n">
+        <v>17.27019498607241</v>
+      </c>
       <c r="I68" s="5" t="n">
         <v>1</v>
       </c>
@@ -6313,7 +6447,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>240</v>
+        <v>33.42618384401112</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>2</v>
@@ -6323,7 +6457,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H69" s="4" t="n"/>
+      <c r="H69" s="4" t="n">
+        <v>66.85236768802224</v>
+      </c>
       <c r="I69" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6397,7 +6533,7 @@
         </is>
       </c>
       <c r="E70" s="4" t="n">
-        <v>3.15</v>
+        <v>0.4387186629526459</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>10</v>
@@ -6407,7 +6543,9 @@
           <t>米</t>
         </is>
       </c>
-      <c r="H70" s="4" t="n"/>
+      <c r="H70" s="4" t="n">
+        <v>4.387186629526459</v>
+      </c>
       <c r="I70" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6481,7 +6619,7 @@
         </is>
       </c>
       <c r="E71" s="4" t="n">
-        <v>4.5</v>
+        <v>0.6267409470752084</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>10</v>
@@ -6491,7 +6629,9 @@
           <t>米</t>
         </is>
       </c>
-      <c r="H71" s="4" t="n"/>
+      <c r="H71" s="4" t="n">
+        <v>6.267409470752084</v>
+      </c>
       <c r="I71" s="5" t="n">
         <v>0.2</v>
       </c>
@@ -6565,7 +6705,7 @@
         </is>
       </c>
       <c r="E72" s="4" t="n">
-        <v>3.8</v>
+        <v>0.5292479108635093</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>10</v>
@@ -6575,7 +6715,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H72" s="4" t="n"/>
+      <c r="H72" s="4" t="n">
+        <v>5.292479108635093</v>
+      </c>
       <c r="I72" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -6649,7 +6791,7 @@
         </is>
       </c>
       <c r="E73" s="4" t="n">
-        <v>15.3</v>
+        <v>2.130919220055709</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>10</v>
@@ -6659,7 +6801,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H73" s="4" t="n"/>
+      <c r="H73" s="4" t="n">
+        <v>21.30919220055709</v>
+      </c>
       <c r="I73" s="5" t="n">
         <v>0.6</v>
       </c>
@@ -6733,7 +6877,7 @@
         </is>
       </c>
       <c r="E74" s="4" t="n">
-        <v>1290</v>
+        <v>179.6657381615597</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>2</v>
@@ -6743,7 +6887,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H74" s="4" t="n"/>
+      <c r="H74" s="4" t="n">
+        <v>359.3314763231195</v>
+      </c>
       <c r="I74" s="5" t="n">
         <v>4.2</v>
       </c>
@@ -6817,7 +6963,7 @@
         </is>
       </c>
       <c r="E75" s="4" t="n">
-        <v>3.2</v>
+        <v>0.4456824512534816</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>40</v>
@@ -6827,7 +6973,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H75" s="4" t="n"/>
+      <c r="H75" s="4" t="n">
+        <v>17.82729805013926</v>
+      </c>
       <c r="I75" s="5" t="n">
         <v>1.5</v>
       </c>
@@ -6901,7 +7049,7 @@
         </is>
       </c>
       <c r="E76" s="4" t="n">
-        <v>79</v>
+        <v>11.00278551532033</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>8</v>
@@ -6911,7 +7059,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H76" s="4" t="n"/>
+      <c r="H76" s="4" t="n">
+        <v>88.02228412256261</v>
+      </c>
       <c r="I76" s="5" t="n">
         <v>16.5</v>
       </c>
@@ -6985,7 +7135,7 @@
         </is>
       </c>
       <c r="E77" s="4" t="n">
-        <v>52</v>
+        <v>7.242339832869075</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>8</v>
@@ -6995,7 +7145,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H77" s="4" t="n"/>
+      <c r="H77" s="4" t="n">
+        <v>57.9387186629526</v>
+      </c>
       <c r="I77" s="5" t="n">
         <v>0.5</v>
       </c>
@@ -7069,7 +7221,7 @@
         </is>
       </c>
       <c r="E78" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>96</v>
@@ -7079,7 +7231,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H78" s="4" t="n"/>
+      <c r="H78" s="4" t="n">
+        <v>3075.208913649023</v>
+      </c>
       <c r="I78" s="5" t="n">
         <v>96</v>
       </c>
@@ -7153,7 +7307,7 @@
         </is>
       </c>
       <c r="E79" s="4" t="n">
-        <v>230</v>
+        <v>32.03342618384399</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>4</v>
@@ -7163,7 +7317,9 @@
           <t>千克</t>
         </is>
       </c>
-      <c r="H79" s="4" t="n"/>
+      <c r="H79" s="4" t="n">
+        <v>128.1337047353759</v>
+      </c>
       <c r="I79" s="5" t="n">
         <v>4</v>
       </c>
@@ -7237,7 +7393,7 @@
         </is>
       </c>
       <c r="E80" s="4" t="n">
-        <v>54</v>
+        <v>7.520891364902502</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>2</v>
@@ -7247,7 +7403,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H80" s="4" t="n"/>
+      <c r="H80" s="4" t="n">
+        <v>15.041782729805</v>
+      </c>
       <c r="I80" s="5" t="n">
         <v>0.36</v>
       </c>
@@ -7321,7 +7479,7 @@
         </is>
       </c>
       <c r="E81" s="4" t="n">
-        <v>250</v>
+        <v>34.81894150417825</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>2</v>
@@ -7331,7 +7489,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H81" s="4" t="n"/>
+      <c r="H81" s="4" t="n">
+        <v>69.6378830083565</v>
+      </c>
       <c r="I81" s="5" t="n">
         <v>0.4</v>
       </c>
@@ -7405,7 +7565,7 @@
         </is>
       </c>
       <c r="E82" s="4" t="n">
-        <v>25</v>
+        <v>3.481894150417824</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>4</v>
@@ -7415,7 +7575,9 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H82" s="4" t="n"/>
+      <c r="H82" s="4" t="n">
+        <v>13.9275766016713</v>
+      </c>
       <c r="I82" s="5" t="n">
         <v>0.2</v>
       </c>

--- a/outputs/reimport_invoice_factory_Silvass.xlsx
+++ b/outputs/reimport_invoice_factory_Silvass.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>保费</t>
+          <t>总保费</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>运费</t>
+          <t>总运费</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>500</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>348.1894150417825</v>
+        <v>348.189415</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>2.6</v>
@@ -681,19 +681,19 @@
         <v>2625</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>4.13</v>
+        <v>6339.01</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>5.57</v>
+        <v>5.36</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>2630.57</v>
+        <v>2630.36</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>5.26</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>3</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.96100278551529</v>
+        <v>45.96100278</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>1.1</v>
@@ -767,25 +767,25 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>1.75</v>
+        <v>6339.01</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>1.94</v>
+        <v>2.27</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>348.44</v>
+        <v>348.77</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>116.15</v>
+        <v>116.26</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>833.92</v>
+        <v>834.72</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.72701949860723</v>
+        <v>21.7270195</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5</v>
@@ -853,25 +853,25 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>164.68</v>
+        <v>164.83</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82.34</v>
+        <v>82.42</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>591.21</v>
+        <v>591.74</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.86350974930361</v>
+        <v>10.86350975</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0.2</v>
@@ -939,25 +939,25 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>82.26000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82.26000000000001</v>
+        <v>82.31</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590.64</v>
+        <v>591</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E6" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>45.96100278551529</v>
+        <v>45.96100278</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>1.55</v>
@@ -1025,25 +1025,25 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>2.46</v>
+        <v>6339.01</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>349.15</v>
+        <v>349.7</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>116.38</v>
+        <v>116.57</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835.63</v>
+        <v>836.9400000000001</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.147632311977714</v>
+        <v>3.14763231</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>100</v>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>314.7632311977713</v>
+        <v>314.763231</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>2</v>
@@ -1111,25 +1111,25 @@
         <v>2373</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>4.48</v>
+        <v>4.13</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>2377.48</v>
+        <v>2377.13</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>23.77</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170.7</v>
+        <v>170.68</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.1114206128133704</v>
+        <v>0.11142061</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>137</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>15.26462395543174</v>
+        <v>15.26462357</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>2.1</v>
@@ -1203,25 +1203,25 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>3.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>118.48</v>
+        <v>119.41</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6.21</v>
+        <v>6.26</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>158.7743732590528</v>
+        <v>158.77437326</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>158.7743732590528</v>
+        <v>158.77437326</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>3</v>
@@ -1290,25 +1290,25 @@
         <v>1197</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.66</v>
+        <v>172.5893015</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>4.76</v>
+        <v>6339.01</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>5.42</v>
+        <v>6.19</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>1202.42</v>
+        <v>1203.19</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1202.42</v>
+        <v>1203.19</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8633.370000000001</v>
+        <v>8638.889999999999</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5</v>
@@ -1376,25 +1376,25 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>8.07</v>
+        <v>10.31</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>249.57</v>
+        <v>251.81</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249.57</v>
+        <v>251.81</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1791.89</v>
+        <v>1808.02</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>25.7660167130919</v>
+        <v>25.76601671</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>77.29805013927572</v>
+        <v>77.29805012999999</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>5</v>
@@ -1462,25 +1462,25 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.11</v>
+        <v>172.5893015</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P11" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>8.25</v>
+        <v>10.31</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>591</v>
+        <v>593.0599999999999</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>197</v>
+        <v>197.69</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1414.47</v>
+        <v>1419.4</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>30</v>
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>20.89136490250695</v>
+        <v>20.8913649</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>0.15</v>
@@ -1548,19 +1548,19 @@
         <v>157.5</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>0.24</v>
+        <v>6339.01</v>
       </c>
       <c r="P12" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>157.82</v>
+        <v>157.81</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>5.26</v>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>2.061281337047352</v>
+        <v>2.06128134</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>2040</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>4205.013927576599</v>
+        <v>4205.0139336</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>1200</v>
@@ -1634,25 +1634,25 @@
         <v>31701.6</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>1904.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>1921.57</v>
+        <v>2475.38</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>33623.17</v>
+        <v>34176.98</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16.48</v>
+        <v>16.75</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118.34</v>
+        <v>120.29</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1.016713091922005</v>
+        <v>1.01671309</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>2800</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>2846.796657381614</v>
+        <v>2846.796652</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>866</v>
@@ -1720,25 +1720,25 @@
         <v>21462</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O14" s="5" t="n">
-        <v>1374.15</v>
+        <v>6339.01</v>
       </c>
       <c r="P14" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>1385.96</v>
+        <v>1786.4</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>22847.96</v>
+        <v>23248.4</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8.16</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58.59</v>
+        <v>59.62</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="E15" s="4" t="n">
-        <v>80.77994428969353</v>
+        <v>80.77994429</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>161.5598885793871</v>
+        <v>161.55988858</v>
       </c>
       <c r="I15" s="5" t="n">
         <v>0.3</v>
@@ -1807,25 +1807,25 @@
         <v>1218</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.33</v>
+        <v>172.5893015</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>0.48</v>
+        <v>6339.01</v>
       </c>
       <c r="P15" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>1219.15</v>
+        <v>1218.62</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>609.5700000000001</v>
+        <v>609.3099999999999</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4376.73</v>
+        <v>4374.84</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="E16" s="4" t="n">
-        <v>11.14206128133704</v>
+        <v>11.14206128</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5</v>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>55.71030640668519</v>
+        <v>55.7103064</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6</v>
@@ -1893,25 +1893,25 @@
         <v>420</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O16" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>421.18</v>
+        <v>421.24</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84.23999999999999</v>
+        <v>84.25</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>604.8200000000001</v>
+        <v>604.9</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="E17" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>2</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>125.3481894150417</v>
+        <v>125.34818942</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0.05</v>
@@ -1979,25 +1979,25 @@
         <v>945</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>0.08</v>
+        <v>6339.01</v>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>945.6</v>
+        <v>945.1</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>472.8</v>
+        <v>472.55</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3394.7</v>
+        <v>3392.92</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E18" s="4" t="n">
-        <v>161.5598885793871</v>
+        <v>161.55988858</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>3</v>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>484.6796657381612</v>
+        <v>484.67966574</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>34</v>
@@ -2069,25 +2069,25 @@
         <v>3654</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.67</v>
+        <v>172.5893015</v>
       </c>
       <c r="O18" s="5" t="n">
-        <v>53.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" s="5" t="n">
-        <v>55.96</v>
+        <v>70.14</v>
       </c>
       <c r="R18" s="5" t="n">
-        <v>3709.96</v>
+        <v>3724.14</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1236.65</v>
+        <v>1241.38</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8879.17</v>
+        <v>8913.1</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="E19" s="4" t="n">
-        <v>181.0584958217269</v>
+        <v>181.05849582</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>12</v>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>2172.701949860723</v>
+        <v>2172.70194984</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>34</v>
@@ -2159,25 +2159,25 @@
         <v>16380</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.75</v>
+        <v>172.5893015</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>53.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>62.96</v>
+        <v>70.14</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>16442.96</v>
+        <v>16450.14</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1370.25</v>
+        <v>1370.84</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9838.370000000001</v>
+        <v>9842.66</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="E20" s="4" t="n">
-        <v>41.78272980501389</v>
+        <v>41.78272981</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>9</v>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>376.044568245125</v>
+        <v>376.04456829</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>205</v>
@@ -2248,25 +2248,25 @@
         <v>2835</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O20" s="5" t="n">
-        <v>325.29</v>
+        <v>6339.01</v>
       </c>
       <c r="P20" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>326.85</v>
+        <v>422.88</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>3161.85</v>
+        <v>3257.88</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>351.32</v>
+        <v>361.99</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2522.45</v>
+        <v>2599.06</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="E21" s="4" t="n">
-        <v>130.2228412256266</v>
+        <v>130.22284123</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>130.2228412256266</v>
+        <v>130.22284123</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>15</v>
@@ -2334,25 +2334,25 @@
         <v>981.75</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.54</v>
+        <v>172.5893015</v>
       </c>
       <c r="O21" s="5" t="n">
-        <v>23.8</v>
+        <v>6339.01</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>24.34</v>
+        <v>30.94</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>1006.09</v>
+        <v>1012.69</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1006.09</v>
+        <v>1012.69</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7223.74</v>
+        <v>7271.13</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3.064066852367686</v>
+        <v>3.06406685</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>10</v>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.6406685</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.09</v>
@@ -2420,25 +2420,25 @@
         <v>231</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O22" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>231.27</v>
+        <v>231.19</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23.13</v>
+        <v>23.12</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166.05</v>
+        <v>165.99</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="E23" s="4" t="n">
-        <v>48.74651810584955</v>
+        <v>48.74651811</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>5</v>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>243.7325905292477</v>
+        <v>243.73259055</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0.04</v>
@@ -2508,25 +2508,25 @@
         <v>1837.5</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2</v>
+        <v>172.5893015</v>
       </c>
       <c r="O23" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P23" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>1.07</v>
+        <v>0.08</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>1838.57</v>
+        <v>1837.58</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>367.71</v>
+        <v>367.52</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2640.19</v>
+        <v>2638.77</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="E24" s="4" t="n">
-        <v>1.114206128133704</v>
+        <v>1.11420613</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>500</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>557.103064066852</v>
+        <v>557.103065</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>4.5</v>
@@ -2594,19 +2594,19 @@
         <v>4200</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O24" s="5" t="n">
-        <v>7.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" s="5" t="n">
-        <v>9.449999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="R24" s="5" t="n">
-        <v>4209.45</v>
+        <v>4209.28</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>8.42</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n">
-        <v>15.32033426183843</v>
+        <v>15.32033426</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>4</v>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.04</v>
@@ -2676,25 +2676,25 @@
         <v>462</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06</v>
+        <v>172.5893015</v>
       </c>
       <c r="O25" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>462.32</v>
+        <v>462.08</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115.58</v>
+        <v>115.52</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>829.86</v>
+        <v>829.4400000000001</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n">
-        <v>25.96796657381613</v>
+        <v>25.96796657</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>5</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>129.8398328690807</v>
+        <v>129.83983285</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>0.04</v>
@@ -2758,25 +2758,25 @@
         <v>978.86</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.11</v>
+        <v>172.5893015</v>
       </c>
       <c r="O26" s="5" t="n">
-        <v>0.06</v>
+        <v>6339.01</v>
       </c>
       <c r="P26" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>979.46</v>
+        <v>978.95</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>195.89</v>
+        <v>195.79</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1406.51</v>
+        <v>1405.77</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E27" s="4" t="n">
-        <v>689.4150417827293</v>
+        <v>689.41504178</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>2</v>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1378.830083565459</v>
+        <v>1378.83008356</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>0.02</v>
@@ -2844,25 +2844,25 @@
         <v>10395</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.86</v>
+        <v>172.5893015</v>
       </c>
       <c r="O27" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P27" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" s="5" t="n">
-        <v>5.75</v>
+        <v>0.04</v>
       </c>
       <c r="R27" s="5" t="n">
-        <v>10400.75</v>
+        <v>10395.04</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5200.37</v>
+        <v>5197.52</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>37338.69</v>
+        <v>37318.2</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0.9052924791086344</v>
+        <v>0.90529248</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>9.052924791086344</v>
+        <v>9.0529248</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.09</v>
@@ -2930,25 +2930,25 @@
         <v>68.25</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O28" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>6.84</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0.9052924791086344</v>
+        <v>0.90529248</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>10</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>9.052924791086344</v>
+        <v>9.0529248</v>
       </c>
       <c r="I29" s="5" t="n">
         <v>0.09</v>
@@ -3016,25 +3016,25 @@
         <v>68.25</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O29" s="5" t="n">
-        <v>0.14</v>
+        <v>6339.01</v>
       </c>
       <c r="P29" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R29" s="5" t="n">
-        <v>68.43000000000001</v>
+        <v>68.44</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>6.84</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49.13</v>
+        <v>49.14</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>2</v>
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>0.02</v>
@@ -3102,25 +3102,25 @@
         <v>462</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O30" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P30" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q30" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R30" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>0.02</v>
@@ -3188,25 +3188,25 @@
         <v>462</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O31" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P31" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R31" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="E32" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I32" s="5" t="n">
         <v>0.02</v>
@@ -3274,25 +3274,25 @@
         <v>462</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O32" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P32" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R32" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="E33" s="4" t="n">
-        <v>30.64066852367686</v>
+        <v>30.64066852</v>
       </c>
       <c r="F33" s="5" t="n">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>61.28133704735372</v>
+        <v>61.28133704</v>
       </c>
       <c r="I33" s="5" t="n">
         <v>0.02</v>
@@ -3360,25 +3360,25 @@
         <v>462</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O33" s="5" t="n">
-        <v>0.03</v>
+        <v>6339.01</v>
       </c>
       <c r="P33" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" s="5" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="R33" s="5" t="n">
-        <v>462.29</v>
+        <v>462.04</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>231.14</v>
+        <v>231.02</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1659.61</v>
+        <v>1658.73</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="E34" s="4" t="n">
-        <v>45.68245125348186</v>
+        <v>45.68245125</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>91.36490250696372</v>
+        <v>91.3649025</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.2</v>
@@ -3446,25 +3446,25 @@
         <v>688.8</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>0.19</v>
+        <v>172.5893015</v>
       </c>
       <c r="O34" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P34" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" s="5" t="n">
-        <v>7.04</v>
+        <v>8.66</v>
       </c>
       <c r="R34" s="5" t="n">
-        <v>695.84</v>
+        <v>697.46</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>347.92</v>
+        <v>348.73</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2498.08</v>
+        <v>2503.9</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="E35" s="4" t="n">
-        <v>45.68245125348186</v>
+        <v>45.68245125</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>2</v>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>91.36490250696372</v>
+        <v>91.3649025</v>
       </c>
       <c r="I35" s="5" t="n">
         <v>4</v>
@@ -3532,25 +3532,25 @@
         <v>688.8</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>0.19</v>
+        <v>172.5893015</v>
       </c>
       <c r="O35" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P35" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" s="5" t="n">
-        <v>6.73</v>
+        <v>8.25</v>
       </c>
       <c r="R35" s="5" t="n">
-        <v>695.53</v>
+        <v>697.05</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>347.76</v>
+        <v>348.53</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2496.94</v>
+        <v>2502.41</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="E36" s="4" t="n">
-        <v>22.03342618384399</v>
+        <v>22.03342618</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>4</v>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>88.13370473537597</v>
+        <v>88.13370472</v>
       </c>
       <c r="I36" s="5" t="n">
         <v>3.5</v>
@@ -3618,25 +3618,25 @@
         <v>664.4400000000001</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>0.09</v>
+        <v>172.5893015</v>
       </c>
       <c r="O36" s="5" t="n">
-        <v>5.55</v>
+        <v>6339.01</v>
       </c>
       <c r="P36" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q36" s="5" t="n">
-        <v>5.92</v>
+        <v>7.22</v>
       </c>
       <c r="R36" s="5" t="n">
-        <v>670.36</v>
+        <v>671.66</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>167.59</v>
+        <v>167.91</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1203.29</v>
+        <v>1205.63</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="E37" s="4" t="n">
-        <v>181.0584958217269</v>
+        <v>181.05849582</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>362.1169916434538</v>
+        <v>362.11699164</v>
       </c>
       <c r="I37" s="5" t="n">
         <v>2.5</v>
@@ -3704,25 +3704,25 @@
         <v>2730</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>0.75</v>
+        <v>172.5893015</v>
       </c>
       <c r="O37" s="5" t="n">
-        <v>3.97</v>
+        <v>6339.01</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q37" s="5" t="n">
-        <v>5.47</v>
+        <v>5.16</v>
       </c>
       <c r="R37" s="5" t="n">
-        <v>2735.47</v>
+        <v>2735.16</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1367.73</v>
+        <v>1367.58</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9820.33</v>
+        <v>9819.209999999999</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="E38" s="4" t="n">
-        <v>192.2005571030639</v>
+        <v>192.2005571</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>192.2005571030639</v>
+        <v>192.2005571</v>
       </c>
       <c r="I38" s="5" t="n">
         <v>1.2</v>
@@ -3790,25 +3790,25 @@
         <v>1449</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>0.8</v>
+        <v>172.5893015</v>
       </c>
       <c r="O38" s="5" t="n">
-        <v>1.9</v>
+        <v>6339.01</v>
       </c>
       <c r="P38" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" s="5" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="R38" s="5" t="n">
-        <v>1451.7</v>
+        <v>1451.48</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1451.7</v>
+        <v>1451.48</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>10423.21</v>
+        <v>10421.59</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="E39" s="4" t="n">
-        <v>0.4874651810584955</v>
+        <v>0.48746518</v>
       </c>
       <c r="F39" s="5" t="n">
         <v>25</v>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>12.18662952646239</v>
+        <v>12.1866295</v>
       </c>
       <c r="I39" s="5" t="n">
         <v>0.1</v>
@@ -3876,13 +3876,13 @@
         <v>91.88</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O39" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P39" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>0.21</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2.03342618384401</v>
+        <v>2.03342618</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5</v>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>10.16713091922005</v>
+        <v>10.1671309</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.2</v>
@@ -3962,25 +3962,25 @@
         <v>76.65000000000001</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O40" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P40" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q40" s="5" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="R40" s="5" t="n">
-        <v>77.01000000000001</v>
+        <v>77.06</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15.4</v>
+        <v>15.41</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>110.59</v>
+        <v>110.66</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>2</v>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I41" s="5" t="n">
         <v>0.2</v>
@@ -4048,25 +4048,25 @@
         <v>21</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O41" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P41" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q41" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R41" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>2</v>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I42" s="5" t="n">
         <v>0.2</v>
@@ -4134,25 +4134,25 @@
         <v>21</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O42" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P42" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R42" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.39275766016713</v>
+        <v>1.39275766</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>2</v>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="I43" s="5" t="n">
         <v>0.2</v>
@@ -4220,25 +4220,25 @@
         <v>21</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O43" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P43" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q43" s="5" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R43" s="5" t="n">
-        <v>21.33</v>
+        <v>21.41</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>10.66</v>
+        <v>10.71</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>76.56999999999999</v>
+        <v>76.87</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="E44" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016713</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>15</v>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>114.9025069637882</v>
+        <v>114.90250695</v>
       </c>
       <c r="I44" s="5" t="n">
         <v>0.1</v>
@@ -4308,25 +4308,25 @@
         <v>866.25</v>
       </c>
       <c r="N44" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O44" s="5" t="n">
-        <v>0.16</v>
+        <v>6339.01</v>
       </c>
       <c r="P44" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" s="5" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="R44" s="5" t="n">
-        <v>866.89</v>
+        <v>866.46</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>57.79</v>
+        <v>57.76</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>414.95</v>
+        <v>414.74</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="E45" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016713</v>
       </c>
       <c r="F45" s="5" t="n">
         <v>5</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>38.30083565459607</v>
+        <v>38.30083565</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>0.2</v>
@@ -4395,25 +4395,25 @@
         <v>288.75</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O45" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P45" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" s="5" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="R45" s="5" t="n">
-        <v>289.23</v>
+        <v>289.16</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>57.85</v>
+        <v>57.83</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>415.33</v>
+        <v>415.24</v>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="E46" s="4" t="n">
-        <v>2.78551532033426</v>
+        <v>2.78551532</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>5</v>
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.14</v>
@@ -4481,25 +4481,25 @@
         <v>105</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O46" s="5" t="n">
-        <v>0.22</v>
+        <v>6339.01</v>
       </c>
       <c r="P46" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" s="5" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="R46" s="5" t="n">
-        <v>105.28</v>
+        <v>105.29</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>21.06</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>151.18</v>
+        <v>151.19</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="E47" s="4" t="n">
-        <v>0.0278551532033426</v>
+        <v>0.02785515</v>
       </c>
       <c r="F47" s="5" t="n">
         <v>33</v>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>0.9192200557103059</v>
+        <v>0.91921995</v>
       </c>
       <c r="I47" s="5" t="n">
         <v>0.16</v>
@@ -4568,25 +4568,25 @@
         <v>6.93</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O47" s="5" t="n">
-        <v>0.25</v>
+        <v>6339.01</v>
       </c>
       <c r="P47" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q47" s="5" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="R47" s="5" t="n">
-        <v>7.19</v>
+        <v>7.26</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>0.22</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="E48" s="4" t="n">
-        <v>21.86629526462394</v>
+        <v>21.86629526</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>2</v>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>43.73259052924788</v>
+        <v>43.73259052</v>
       </c>
       <c r="I48" s="5" t="n">
         <v>2.3</v>
@@ -4654,25 +4654,25 @@
         <v>329.7</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>0.09</v>
+        <v>172.5893015</v>
       </c>
       <c r="O48" s="5" t="n">
-        <v>3.65</v>
+        <v>6339.01</v>
       </c>
       <c r="P48" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q48" s="5" t="n">
-        <v>3.83</v>
+        <v>4.74</v>
       </c>
       <c r="R48" s="5" t="n">
-        <v>333.53</v>
+        <v>334.44</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>166.77</v>
+        <v>167.22</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1197.38</v>
+        <v>1200.66</v>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="E49" s="4" t="n">
-        <v>0.6963788300835649</v>
+        <v>0.69637883</v>
       </c>
       <c r="F49" s="5" t="n">
         <v>20</v>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>2.06</v>
@@ -4740,25 +4740,25 @@
         <v>105</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O49" s="5" t="n">
-        <v>3.27</v>
+        <v>6339.01</v>
       </c>
       <c r="P49" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q49" s="5" t="n">
-        <v>3.33</v>
+        <v>4.25</v>
       </c>
       <c r="R49" s="5" t="n">
-        <v>108.33</v>
+        <v>109.25</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>38.89</v>
+        <v>39.22</v>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="E50" s="4" t="n">
-        <v>4.342618384401111</v>
+        <v>4.34261838</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>2</v>
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>8.685236768802222</v>
+        <v>8.68523676</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>0.2</v>
@@ -4826,25 +4826,25 @@
         <v>65.48</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O50" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P50" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" s="5" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="R50" s="5" t="n">
-        <v>65.83</v>
+        <v>65.89</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>32.92</v>
+        <v>32.95</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>236.33</v>
+        <v>236.55</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="E51" s="4" t="n">
-        <v>35.55292479108633</v>
+        <v>35.55292479</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>35.55292479108633</v>
+        <v>35.55292479</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>0.2</v>
@@ -4912,25 +4912,25 @@
         <v>268.03</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>0.15</v>
+        <v>172.5893015</v>
       </c>
       <c r="O51" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P51" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q51" s="5" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="R51" s="5" t="n">
-        <v>268.5</v>
+        <v>268.45</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>268.5</v>
+        <v>268.45</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1927.82</v>
+        <v>1927.44</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2.089136490250695</v>
+        <v>2.08913649</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>10</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>20.89136490250695</v>
+        <v>20.8913649</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.5</v>
@@ -4998,25 +4998,25 @@
         <v>157.5</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O52" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P52" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" s="5" t="n">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="R52" s="5" t="n">
-        <v>158.38</v>
+        <v>158.53</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>15.84</v>
+        <v>15.85</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>113.72</v>
+        <v>113.83</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="E53" s="4" t="n">
-        <v>0.15041782729805</v>
+        <v>0.15041783</v>
       </c>
       <c r="F53" s="5" t="n">
         <v>50</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>7.520891364902502</v>
+        <v>7.5208915</v>
       </c>
       <c r="I53" s="5" t="n">
         <v>0.55</v>
@@ -5084,25 +5084,25 @@
         <v>56.7</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O53" s="5" t="n">
-        <v>0.87</v>
+        <v>6339.01</v>
       </c>
       <c r="P53" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q53" s="5" t="n">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="R53" s="5" t="n">
-        <v>57.6</v>
+        <v>57.83</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>8.27</v>
+        <v>8.31</v>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.532033426183843</v>
+        <v>1.53203343</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>5</v>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>7.660167130919215</v>
+        <v>7.66016715</v>
       </c>
       <c r="I54" s="5" t="n">
         <v>0.6</v>
@@ -5174,25 +5174,25 @@
         <v>57.75</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O54" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P54" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q54" s="5" t="n">
-        <v>0.98</v>
+        <v>1.24</v>
       </c>
       <c r="R54" s="5" t="n">
-        <v>58.73</v>
+        <v>58.99</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>84.34</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="E55" s="4" t="n">
-        <v>0.005571030640668519</v>
+        <v>0.00557103</v>
       </c>
       <c r="F55" s="5" t="n">
         <v>410</v>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>2.284122562674093</v>
+        <v>2.2841223</v>
       </c>
       <c r="I55" s="5" t="n">
         <v>1</v>
@@ -5260,25 +5260,25 @@
         <v>17.22</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O55" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P55" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" s="5" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="R55" s="5" t="n">
-        <v>18.82</v>
+        <v>19.28</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>0.05</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="E56" s="4" t="n">
-        <v>215.8774373259051</v>
+        <v>215.87743733</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>9</v>
@@ -5328,7 +5328,7 @@
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1942.896935933146</v>
+        <v>1942.89693597</v>
       </c>
       <c r="I56" s="5" t="n">
         <v>11</v>
@@ -5346,25 +5346,25 @@
         <v>14647.5</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>0.9</v>
+        <v>172.5893015</v>
       </c>
       <c r="O56" s="5" t="n">
-        <v>17.45</v>
+        <v>6339.01</v>
       </c>
       <c r="P56" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q56" s="5" t="n">
-        <v>25.51</v>
+        <v>22.69</v>
       </c>
       <c r="R56" s="5" t="n">
-        <v>14673.01</v>
+        <v>14670.19</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1630.33</v>
+        <v>1630.02</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>11705.8</v>
+        <v>11703.55</v>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="E57" s="4" t="n">
-        <v>27.8551532033426</v>
+        <v>27.8551532</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>12</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>334.2618384401111</v>
+        <v>334.2618384</v>
       </c>
       <c r="I57" s="5" t="n">
         <v>2.98</v>
@@ -5432,25 +5432,25 @@
         <v>2520</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>0.12</v>
+        <v>172.5893015</v>
       </c>
       <c r="O57" s="5" t="n">
-        <v>4.73</v>
+        <v>6339.01</v>
       </c>
       <c r="P57" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q57" s="5" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="R57" s="5" t="n">
-        <v>2526.11</v>
+        <v>2526.15</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>210.51</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>1511.46</v>
+        <v>1511.48</v>
       </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="E58" s="4" t="n">
-        <v>36.21169916434538</v>
+        <v>36.21169916</v>
       </c>
       <c r="F58" s="5" t="n">
         <v>2</v>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>72.42339832869075</v>
+        <v>72.42339832</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>5</v>
@@ -5518,25 +5518,25 @@
         <v>546</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>0.15</v>
+        <v>172.5893015</v>
       </c>
       <c r="O58" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P58" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q58" s="5" t="n">
-        <v>8.23</v>
+        <v>10.31</v>
       </c>
       <c r="R58" s="5" t="n">
-        <v>554.23</v>
+        <v>556.3099999999999</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>277.12</v>
+        <v>278.16</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>1989.7</v>
+        <v>1997.17</v>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="E59" s="4" t="n">
-        <v>3.621169916434538</v>
+        <v>3.62116992</v>
       </c>
       <c r="F59" s="5" t="n">
         <v>10</v>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>36.21169916434538</v>
+        <v>36.2116992</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>5.78</v>
@@ -5604,25 +5604,25 @@
         <v>273</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>0.02</v>
+        <v>172.5893015</v>
       </c>
       <c r="O59" s="5" t="n">
-        <v>9.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P59" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q59" s="5" t="n">
-        <v>9.32</v>
+        <v>11.92</v>
       </c>
       <c r="R59" s="5" t="n">
-        <v>282.32</v>
+        <v>284.92</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>28.23</v>
+        <v>28.49</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>202.71</v>
+        <v>204.57</v>
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="E60" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F60" s="5" t="n">
         <v>96</v>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>3075.208913649023</v>
+        <v>3075.20891328</v>
       </c>
       <c r="I60" s="5" t="n">
         <v>96</v>
@@ -5690,25 +5690,25 @@
         <v>23184</v>
       </c>
       <c r="N60" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O60" s="5" t="n">
-        <v>152.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P60" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q60" s="5" t="n">
-        <v>165.08</v>
+        <v>198.03</v>
       </c>
       <c r="R60" s="5" t="n">
-        <v>23349.08</v>
+        <v>23382.03</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="E61" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F61" s="5" t="n">
         <v>4</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>128.1337047353759</v>
+        <v>128.13370472</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>4</v>
@@ -5776,25 +5776,25 @@
         <v>966</v>
       </c>
       <c r="N61" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O61" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P61" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q61" s="5" t="n">
-        <v>6.88</v>
+        <v>8.25</v>
       </c>
       <c r="R61" s="5" t="n">
-        <v>972.88</v>
+        <v>974.25</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E62" s="4" t="n">
-        <v>41.50417827298047</v>
+        <v>41.50417827</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>4</v>
@@ -5850,7 +5850,7 @@
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>166.0167130919219</v>
+        <v>166.01671308</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>18</v>
@@ -5868,25 +5868,25 @@
         <v>1251.6</v>
       </c>
       <c r="N62" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O62" s="5" t="n">
-        <v>28.56</v>
+        <v>6339.01</v>
       </c>
       <c r="P62" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q62" s="5" t="n">
-        <v>29.25</v>
+        <v>37.13</v>
       </c>
       <c r="R62" s="5" t="n">
-        <v>1280.85</v>
+        <v>1288.73</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>320.21</v>
+        <v>322.18</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>2299.13</v>
+        <v>2313.27</v>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="E63" s="4" t="n">
-        <v>41.50417827298047</v>
+        <v>41.50417827</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>3</v>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>124.5125348189414</v>
+        <v>124.51253481</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>13</v>
@@ -5960,25 +5960,25 @@
         <v>938.7</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>0.17</v>
+        <v>172.5893015</v>
       </c>
       <c r="O63" s="5" t="n">
-        <v>20.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P63" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q63" s="5" t="n">
-        <v>21.14</v>
+        <v>26.82</v>
       </c>
       <c r="R63" s="5" t="n">
-        <v>959.84</v>
+        <v>965.52</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>319.95</v>
+        <v>321.84</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>2297.23</v>
+        <v>2310.8</v>
       </c>
       <c r="U63" s="4" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="E64" s="4" t="n">
-        <v>18.52367688022283</v>
+        <v>18.52367688</v>
       </c>
       <c r="F64" s="5" t="n">
         <v>6</v>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>111.142061281337</v>
+        <v>111.14206128</v>
       </c>
       <c r="I64" s="5" t="n">
         <v>2</v>
@@ -6046,25 +6046,25 @@
         <v>837.9</v>
       </c>
       <c r="N64" s="5" t="n">
-        <v>0.08</v>
+        <v>172.5893015</v>
       </c>
       <c r="O64" s="5" t="n">
-        <v>3.17</v>
+        <v>6339.01</v>
       </c>
       <c r="P64" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q64" s="5" t="n">
-        <v>3.63</v>
+        <v>4.13</v>
       </c>
       <c r="R64" s="5" t="n">
-        <v>841.53</v>
+        <v>842.03</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>140.26</v>
+        <v>140.34</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>1007.04</v>
+        <v>1007.62</v>
       </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="E65" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>1</v>
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>62.67409470752084</v>
+        <v>62.67409471</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>5</v>
@@ -6132,25 +6132,25 @@
         <v>472.5</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>0.26</v>
+        <v>172.5893015</v>
       </c>
       <c r="O65" s="5" t="n">
-        <v>7.93</v>
+        <v>6339.01</v>
       </c>
       <c r="P65" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q65" s="5" t="n">
-        <v>8.19</v>
+        <v>10.31</v>
       </c>
       <c r="R65" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>480.69</v>
+        <v>482.81</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>3451.38</v>
+        <v>3466.6</v>
       </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="E66" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F66" s="5" t="n">
         <v>2</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I66" s="5" t="n">
         <v>1</v>
@@ -6218,25 +6218,25 @@
         <v>1512</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O66" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P66" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q66" s="5" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="R66" s="5" t="n">
-        <v>1514.42</v>
+        <v>1514.06</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>757.21</v>
+        <v>757.03</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>5436.76</v>
+        <v>5435.49</v>
       </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="E67" s="4" t="n">
-        <v>100.2785515320333</v>
+        <v>100.27855153</v>
       </c>
       <c r="F67" s="5" t="n">
         <v>2</v>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>200.5571030640667</v>
+        <v>200.55710306</v>
       </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
@@ -6304,25 +6304,25 @@
         <v>1512</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>0.42</v>
+        <v>172.5893015</v>
       </c>
       <c r="O67" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P67" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q67" s="5" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="R67" s="5" t="n">
-        <v>1514.42</v>
+        <v>1514.06</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>757.21</v>
+        <v>757.03</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>5436.76</v>
+        <v>5435.49</v>
       </c>
       <c r="U67" s="4" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="E68" s="4" t="n">
-        <v>8.635097493036206</v>
+        <v>8.63509749</v>
       </c>
       <c r="F68" s="5" t="n">
         <v>2</v>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>17.27019498607241</v>
+        <v>17.27019498</v>
       </c>
       <c r="I68" s="5" t="n">
         <v>1</v>
@@ -6390,25 +6390,25 @@
         <v>130.2</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>0.04</v>
+        <v>172.5893015</v>
       </c>
       <c r="O68" s="5" t="n">
-        <v>1.59</v>
+        <v>6339.01</v>
       </c>
       <c r="P68" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q68" s="5" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="R68" s="5" t="n">
-        <v>131.86</v>
+        <v>132.26</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>65.93000000000001</v>
+        <v>66.13</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>473.37</v>
+        <v>474.82</v>
       </c>
       <c r="U68" s="4" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="E69" s="4" t="n">
-        <v>33.42618384401112</v>
+        <v>33.42618384</v>
       </c>
       <c r="F69" s="5" t="n">
         <v>2</v>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>66.85236768802224</v>
+        <v>66.85236768</v>
       </c>
       <c r="I69" s="5" t="n">
         <v>0.2</v>
@@ -6476,25 +6476,25 @@
         <v>504</v>
       </c>
       <c r="N69" s="5" t="n">
-        <v>0.14</v>
+        <v>172.5893015</v>
       </c>
       <c r="O69" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P69" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q69" s="5" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="R69" s="5" t="n">
-        <v>504.59</v>
+        <v>504.41</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>252.3</v>
+        <v>252.21</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>1811.49</v>
+        <v>1810.84</v>
       </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="E70" s="4" t="n">
-        <v>0.4387186629526459</v>
+        <v>0.43871866</v>
       </c>
       <c r="F70" s="5" t="n">
         <v>10</v>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>4.387186629526459</v>
+        <v>4.3871866</v>
       </c>
       <c r="I70" s="5" t="n">
         <v>0.2</v>
@@ -6562,25 +6562,25 @@
         <v>33.08</v>
       </c>
       <c r="N70" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O70" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P70" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q70" s="5" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R70" s="5" t="n">
-        <v>33.41</v>
+        <v>33.49</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="E71" s="4" t="n">
-        <v>0.6267409470752084</v>
+        <v>0.62674095</v>
       </c>
       <c r="F71" s="5" t="n">
         <v>10</v>
@@ -6630,7 +6630,7 @@
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>6.267409470752084</v>
+        <v>6.2674095</v>
       </c>
       <c r="I71" s="5" t="n">
         <v>0.2</v>
@@ -6648,25 +6648,25 @@
         <v>47.25</v>
       </c>
       <c r="N71" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O71" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P71" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q71" s="5" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="R71" s="5" t="n">
-        <v>47.59</v>
+        <v>47.66</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>34.17</v>
+        <v>34.22</v>
       </c>
       <c r="U71" s="4" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="E72" s="4" t="n">
-        <v>0.5292479108635093</v>
+        <v>0.52924791</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>10</v>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>5.292479108635093</v>
+        <v>5.2924791</v>
       </c>
       <c r="I72" s="5" t="n">
         <v>0.6</v>
@@ -6734,25 +6734,25 @@
         <v>39.9</v>
       </c>
       <c r="N72" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O72" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P72" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q72" s="5" t="n">
-        <v>0.97</v>
+        <v>1.24</v>
       </c>
       <c r="R72" s="5" t="n">
-        <v>40.87</v>
+        <v>41.14</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>29.35</v>
+        <v>29.54</v>
       </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="E73" s="4" t="n">
-        <v>2.130919220055709</v>
+        <v>2.13091922</v>
       </c>
       <c r="F73" s="5" t="n">
         <v>10</v>
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>21.30919220055709</v>
+        <v>21.3091922</v>
       </c>
       <c r="I73" s="5" t="n">
         <v>0.6</v>
@@ -6820,25 +6820,25 @@
         <v>160.65</v>
       </c>
       <c r="N73" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O73" s="5" t="n">
-        <v>0.95</v>
+        <v>6339.01</v>
       </c>
       <c r="P73" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q73" s="5" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="R73" s="5" t="n">
-        <v>161.69</v>
+        <v>161.89</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>16.17</v>
+        <v>16.19</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>116.09</v>
+        <v>116.24</v>
       </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="E74" s="4" t="n">
-        <v>179.6657381615597</v>
+        <v>179.66573816</v>
       </c>
       <c r="F74" s="5" t="n">
         <v>2</v>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>359.3314763231195</v>
+        <v>359.33147632</v>
       </c>
       <c r="I74" s="5" t="n">
         <v>4.2</v>
@@ -6906,25 +6906,25 @@
         <v>2709</v>
       </c>
       <c r="N74" s="5" t="n">
-        <v>0.74</v>
+        <v>172.5893015</v>
       </c>
       <c r="O74" s="5" t="n">
-        <v>6.66</v>
+        <v>6339.01</v>
       </c>
       <c r="P74" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q74" s="5" t="n">
-        <v>8.15</v>
+        <v>8.66</v>
       </c>
       <c r="R74" s="5" t="n">
-        <v>2717.15</v>
+        <v>2717.66</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>1358.58</v>
+        <v>1358.83</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>9754.58</v>
+        <v>9756.41</v>
       </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="E75" s="4" t="n">
-        <v>0.4456824512534816</v>
+        <v>0.44568245</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>40</v>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>17.82729805013926</v>
+        <v>17.827298</v>
       </c>
       <c r="I75" s="5" t="n">
         <v>1.5</v>
@@ -6992,25 +6992,25 @@
         <v>134.4</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>0</v>
+        <v>172.5893015</v>
       </c>
       <c r="O75" s="5" t="n">
-        <v>2.38</v>
+        <v>6339.01</v>
       </c>
       <c r="P75" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q75" s="5" t="n">
-        <v>2.45</v>
+        <v>3.09</v>
       </c>
       <c r="R75" s="5" t="n">
-        <v>136.85</v>
+        <v>137.49</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>24.57</v>
+        <v>24.68</v>
       </c>
       <c r="U75" s="4" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="E76" s="4" t="n">
-        <v>11.00278551532033</v>
+        <v>11.00278552</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>8</v>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>88.02228412256261</v>
+        <v>88.02228416</v>
       </c>
       <c r="I76" s="5" t="n">
         <v>16.5</v>
@@ -7078,25 +7078,25 @@
         <v>663.6</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>0.05</v>
+        <v>172.5893015</v>
       </c>
       <c r="O76" s="5" t="n">
-        <v>26.18</v>
+        <v>6339.01</v>
       </c>
       <c r="P76" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q76" s="5" t="n">
-        <v>26.55</v>
+        <v>34.04</v>
       </c>
       <c r="R76" s="5" t="n">
-        <v>690.15</v>
+        <v>697.64</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>86.27</v>
+        <v>87.2</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>619.41</v>
+        <v>626.13</v>
       </c>
       <c r="U76" s="4" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="E77" s="4" t="n">
-        <v>7.242339832869075</v>
+        <v>7.24233983</v>
       </c>
       <c r="F77" s="5" t="n">
         <v>8</v>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>57.9387186629526</v>
+        <v>57.93871864</v>
       </c>
       <c r="I77" s="5" t="n">
         <v>0.5</v>
@@ -7164,13 +7164,13 @@
         <v>436.8</v>
       </c>
       <c r="N77" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O77" s="5" t="n">
-        <v>0.79</v>
+        <v>6339.01</v>
       </c>
       <c r="P77" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1.03</v>
@@ -7182,7 +7182,7 @@
         <v>54.73</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>392.96</v>
+        <v>392.95</v>
       </c>
       <c r="U77" s="4" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E78" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F78" s="5" t="n">
         <v>96</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>3075.208913649023</v>
+        <v>3075.20891328</v>
       </c>
       <c r="I78" s="5" t="n">
         <v>96</v>
@@ -7250,25 +7250,25 @@
         <v>23184</v>
       </c>
       <c r="N78" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O78" s="5" t="n">
-        <v>152.33</v>
+        <v>6339.01</v>
       </c>
       <c r="P78" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q78" s="5" t="n">
-        <v>165.08</v>
+        <v>198.03</v>
       </c>
       <c r="R78" s="5" t="n">
-        <v>23349.08</v>
+        <v>23382.03</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="E79" s="4" t="n">
-        <v>32.03342618384399</v>
+        <v>32.03342618</v>
       </c>
       <c r="F79" s="5" t="n">
         <v>4</v>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>128.1337047353759</v>
+        <v>128.13370472</v>
       </c>
       <c r="I79" s="5" t="n">
         <v>4</v>
@@ -7336,25 +7336,25 @@
         <v>966</v>
       </c>
       <c r="N79" s="5" t="n">
-        <v>0.13</v>
+        <v>172.5893015</v>
       </c>
       <c r="O79" s="5" t="n">
-        <v>6.35</v>
+        <v>6339.01</v>
       </c>
       <c r="P79" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q79" s="5" t="n">
-        <v>6.88</v>
+        <v>8.25</v>
       </c>
       <c r="R79" s="5" t="n">
-        <v>972.88</v>
+        <v>974.25</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>243.22</v>
+        <v>243.56</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>1746.32</v>
+        <v>1748.78</v>
       </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="E80" s="4" t="n">
-        <v>7.520891364902502</v>
+        <v>7.52089136</v>
       </c>
       <c r="F80" s="5" t="n">
         <v>2</v>
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>15.041782729805</v>
+        <v>15.04178272</v>
       </c>
       <c r="I80" s="5" t="n">
         <v>0.36</v>
@@ -7422,25 +7422,25 @@
         <v>113.4</v>
       </c>
       <c r="N80" s="5" t="n">
-        <v>0.03</v>
+        <v>172.5893015</v>
       </c>
       <c r="O80" s="5" t="n">
-        <v>0.57</v>
+        <v>6339.01</v>
       </c>
       <c r="P80" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q80" s="5" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="R80" s="5" t="n">
-        <v>114.03</v>
+        <v>114.14</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>57.02</v>
+        <v>57.07</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>409.38</v>
+        <v>409.77</v>
       </c>
       <c r="U80" s="4" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         </is>
       </c>
       <c r="E81" s="4" t="n">
-        <v>34.81894150417825</v>
+        <v>34.8189415</v>
       </c>
       <c r="F81" s="5" t="n">
         <v>2</v>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>69.6378830083565</v>
+        <v>69.637883</v>
       </c>
       <c r="I81" s="5" t="n">
         <v>0.4</v>
@@ -7508,25 +7508,25 @@
         <v>525</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>0.14</v>
+        <v>172.5893015</v>
       </c>
       <c r="O81" s="5" t="n">
-        <v>0.63</v>
+        <v>6339.01</v>
       </c>
       <c r="P81" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q81" s="5" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="R81" s="5" t="n">
-        <v>525.92</v>
+        <v>525.83</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>262.96</v>
+        <v>262.91</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>1888.07</v>
+        <v>1887.71</v>
       </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="E82" s="4" t="n">
-        <v>3.481894150417824</v>
+        <v>3.48189415</v>
       </c>
       <c r="F82" s="5" t="n">
         <v>4</v>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>13.9275766016713</v>
+        <v>13.9275766</v>
       </c>
       <c r="I82" s="5" t="n">
         <v>0.2</v>
@@ -7594,25 +7594,25 @@
         <v>105</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>0.01</v>
+        <v>172.5893015</v>
       </c>
       <c r="O82" s="5" t="n">
-        <v>0.32</v>
+        <v>6339.01</v>
       </c>
       <c r="P82" s="5" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="Q82" s="5" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="R82" s="5" t="n">
-        <v>105.38</v>
+        <v>105.41</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>26.34</v>
+        <v>26.35</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>189.15</v>
+        <v>189.22</v>
       </c>
       <c r="U82" s="4" t="inlineStr">
         <is>
@@ -7657,18 +7657,14 @@
       <c r="M83" s="5" t="n">
         <v>195107.1</v>
       </c>
-      <c r="N83" s="5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="O83" s="5" t="n">
-        <v>4282.16</v>
-      </c>
+      <c r="N83" s="5" t="n"/>
+      <c r="O83" s="5" t="n"/>
       <c r="P83" s="5" t="n"/>
       <c r="Q83" s="5" t="n">
-        <v>4389.490000000001</v>
+        <v>5566.82</v>
       </c>
       <c r="R83" s="5" t="n">
-        <v>199496.58</v>
+        <v>200673.93</v>
       </c>
       <c r="S83" s="5" t="n"/>
       <c r="T83" s="5" t="n"/>

--- a/outputs/reimport_invoice_factory_Silvass.xlsx
+++ b/outputs/reimport_invoice_factory_Silvass.xlsx
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
